--- a/data/df_all_cleaned_games.xlsx
+++ b/data/df_all_cleaned_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ9"/>
+  <dimension ref="A1:CJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1223,12 +1223,6 @@
           <t>5.73</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
           <t>3.91</t>
@@ -1259,9 +1253,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
           <t>3.25</t>
@@ -1548,6 +1539,5087 @@
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-12-23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dünya Kulüpler Kupası</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Club Leon</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Urawa Red Diamonds</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17-12-23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-12-23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>17-12-23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CH13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17-12-23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>17-12-23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17-12-23</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="CJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CH19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0-0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Premier Lig</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1-0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
